--- a/data/trans_dic/P2B_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P2B_R-Estudios-trans_dic.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>17,97; 23,24</t>
+          <t>17,85; 23,21</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>43,84; 50,84</t>
+          <t>43,93; 50,84</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>34,78; 42,39</t>
+          <t>34,62; 41,98</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>23,5; 30,86</t>
+          <t>23,45; 30,77</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>23,81; 28,71</t>
+          <t>23,73; 28,94</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>43,28; 49,1</t>
+          <t>43,45; 49,01</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>37,16; 43,79</t>
+          <t>37,55; 44,36</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>34,85; 40,47</t>
+          <t>34,46; 40,08</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>21,88; 25,68</t>
+          <t>21,83; 25,57</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>44,67; 48,92</t>
+          <t>44,31; 49,07</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>37,17; 42,14</t>
+          <t>37,49; 42,4</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>31,23; 35,63</t>
+          <t>31,13; 35,82</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>19,58; 24,29</t>
+          <t>19,8; 24,48</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>51,67; 56,92</t>
+          <t>51,53; 57,05</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>39,05; 44,03</t>
+          <t>38,87; 44,17</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>21,2; 26,07</t>
+          <t>21,3; 26,19</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>23,46; 28,13</t>
+          <t>23,71; 28,61</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>57,63; 63,03</t>
+          <t>57,33; 62,83</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>46,93; 51,89</t>
+          <t>47,19; 52,05</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>24,73; 45,39</t>
+          <t>24,58; 45,97</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>22,3; 25,74</t>
+          <t>22,32; 25,86</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>55,42; 59,17</t>
+          <t>55,62; 59,3</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>43,88; 47,55</t>
+          <t>43,86; 47,55</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>24,06; 35,62</t>
+          <t>24,05; 36,64</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>20,42; 29,23</t>
+          <t>20,4; 29,76</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>45,4; 57,05</t>
+          <t>45,25; 56,14</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>42,01; 53,56</t>
+          <t>42,6; 53,86</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>16,48; 25,48</t>
+          <t>16,8; 25,15</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>23,12; 33,13</t>
+          <t>23,18; 32,64</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>50,61; 61,69</t>
+          <t>50,98; 62,13</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>45,8; 56,2</t>
+          <t>46,4; 56,38</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>17,4; 24,3</t>
+          <t>17,52; 24,18</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>23,08; 29,18</t>
+          <t>22,72; 29,43</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>49,36; 57,56</t>
+          <t>49,75; 57,58</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>46,36; 53,63</t>
+          <t>45,74; 53,44</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>18,38; 23,22</t>
+          <t>17,92; 23,74</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>20,06; 23,58</t>
+          <t>20,2; 23,55</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>49,75; 53,69</t>
+          <t>49,86; 53,84</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>39,72; 43,79</t>
+          <t>39,55; 43,53</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>22,2; 25,81</t>
+          <t>22,07; 25,96</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>24,55; 27,77</t>
+          <t>24,38; 27,69</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>52,12; 55,83</t>
+          <t>52,33; 56,2</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>44,93; 48,93</t>
+          <t>45,04; 48,87</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>27,5; 41,18</t>
+          <t>27,33; 38,81</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>23,05; 25,45</t>
+          <t>22,92; 25,37</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>51,79; 54,39</t>
+          <t>51,84; 54,53</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>43,1; 45,87</t>
+          <t>43,03; 45,81</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>25,59; 33,5</t>
+          <t>25,73; 33,45</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P2B_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P2B_R-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>17,85; 23,21</t>
+          <t>17,88; 23,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>43,93; 50,84</t>
+          <t>44,24; 51,07</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>34,62; 41,98</t>
+          <t>34,59; 42,28</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>23,73; 28,94</t>
+          <t>23,41; 28,75</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>43,45; 49,01</t>
+          <t>43,5; 49,07</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>37,55; 44,36</t>
+          <t>37,75; 44,05</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>21,83; 25,57</t>
+          <t>22,0; 25,8</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>44,31; 49,07</t>
+          <t>44,48; 48,69</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>37,49; 42,4</t>
+          <t>37,35; 42,25</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>19,8; 24,48</t>
+          <t>19,72; 24,46</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>51,53; 57,05</t>
+          <t>51,86; 57,29</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>38,87; 44,17</t>
+          <t>39,16; 43,96</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>23,71; 28,61</t>
+          <t>23,32; 28,41</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>57,33; 62,83</t>
+          <t>57,65; 62,84</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>47,19; 52,05</t>
+          <t>46,65; 52,02</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>22,32; 25,86</t>
+          <t>22,32; 25,56</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>55,62; 59,3</t>
+          <t>55,46; 59,32</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>43,86; 47,55</t>
+          <t>43,67; 47,36</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>20,4; 29,76</t>
+          <t>20,22; 29,4</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>45,25; 56,14</t>
+          <t>45,36; 56,98</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>42,6; 53,86</t>
+          <t>42,63; 54,36</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>23,18; 32,64</t>
+          <t>22,84; 32,62</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>50,98; 62,13</t>
+          <t>51,28; 62,36</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>46,4; 56,38</t>
+          <t>46,1; 56,2</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>22,72; 29,43</t>
+          <t>22,97; 29,67</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>49,75; 57,58</t>
+          <t>50,07; 58,3</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>45,74; 53,44</t>
+          <t>45,66; 53,31</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>20,2; 23,55</t>
+          <t>20,26; 23,58</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>49,86; 53,84</t>
+          <t>50,01; 53,88</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>39,55; 43,53</t>
+          <t>39,63; 43,63</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>24,38; 27,69</t>
+          <t>24,67; 27,99</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>52,33; 56,2</t>
+          <t>52,25; 56,03</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>45,04; 48,87</t>
+          <t>45,0; 48,81</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>22,92; 25,37</t>
+          <t>23,04; 25,22</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>51,84; 54,53</t>
+          <t>51,8; 54,45</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>43,03; 45,81</t>
+          <t>43,06; 45,91</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">

--- a/data/trans_dic/P2B_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P2B_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>17,88; 23,0</t>
+          <t>17,97; 23,24</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>44,24; 51,07</t>
+          <t>43,84; 50,84</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>34,59; 42,28</t>
+          <t>34,78; 42,39</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>23,45; 30,77</t>
+          <t>23,5; 30,86</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>23,41; 28,75</t>
+          <t>23,81; 28,71</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>43,5; 49,07</t>
+          <t>43,28; 49,1</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>37,75; 44,05</t>
+          <t>37,16; 43,79</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>34,46; 40,08</t>
+          <t>34,85; 40,47</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>22,0; 25,8</t>
+          <t>21,88; 25,68</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>44,48; 48,69</t>
+          <t>44,67; 48,92</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>37,35; 42,25</t>
+          <t>37,17; 42,14</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>31,13; 35,82</t>
+          <t>31,23; 35,63</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>19,72; 24,46</t>
+          <t>19,58; 24,29</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>51,86; 57,29</t>
+          <t>51,67; 56,92</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>39,16; 43,96</t>
+          <t>39,05; 44,03</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>21,3; 26,19</t>
+          <t>21,2; 26,07</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>23,32; 28,41</t>
+          <t>23,46; 28,13</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>57,65; 62,84</t>
+          <t>57,63; 63,03</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>46,65; 52,02</t>
+          <t>46,93; 51,89</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>24,58; 45,97</t>
+          <t>24,73; 45,39</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>22,32; 25,56</t>
+          <t>22,3; 25,74</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>55,46; 59,32</t>
+          <t>55,42; 59,17</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>43,67; 47,36</t>
+          <t>43,88; 47,55</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>24,05; 36,64</t>
+          <t>24,06; 35,62</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>20,22; 29,4</t>
+          <t>20,42; 29,23</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>45,36; 56,98</t>
+          <t>45,4; 57,05</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>42,63; 54,36</t>
+          <t>42,01; 53,56</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>16,8; 25,15</t>
+          <t>16,48; 25,48</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>22,84; 32,62</t>
+          <t>23,12; 33,13</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>51,28; 62,36</t>
+          <t>50,61; 61,69</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>46,1; 56,2</t>
+          <t>45,8; 56,2</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>17,52; 24,18</t>
+          <t>17,4; 24,3</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>22,97; 29,67</t>
+          <t>23,08; 29,18</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>50,07; 58,3</t>
+          <t>49,36; 57,56</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>45,66; 53,31</t>
+          <t>46,36; 53,63</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>17,92; 23,74</t>
+          <t>18,38; 23,22</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>20,26; 23,58</t>
+          <t>20,06; 23,58</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>50,01; 53,88</t>
+          <t>49,75; 53,69</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>39,63; 43,63</t>
+          <t>39,72; 43,79</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>22,07; 25,96</t>
+          <t>22,2; 25,81</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>24,67; 27,99</t>
+          <t>24,55; 27,77</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>52,25; 56,03</t>
+          <t>52,12; 55,83</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>45,0; 48,81</t>
+          <t>44,93; 48,93</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>27,33; 38,81</t>
+          <t>27,5; 41,18</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>23,04; 25,22</t>
+          <t>23,05; 25,45</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>51,8; 54,45</t>
+          <t>51,79; 54,39</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>43,06; 45,91</t>
+          <t>43,1; 45,87</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>25,73; 33,45</t>
+          <t>25,59; 33,5</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P2B_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P2B_R-Estudios-trans_dic.xlsx
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>26,96%</t>
+          <t>26,14%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>37,46%</t>
+          <t>36,91%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>33,47%</t>
+          <t>32,7%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>23,5; 30,86</t>
+          <t>22,58; 29,92</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>34,85; 40,47</t>
+          <t>34,41; 39,89</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>31,23; 35,63</t>
+          <t>30,51; 34,81</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>23,83%</t>
+          <t>22,59%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>30,26%</t>
+          <t>32,23%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>27,41%</t>
+          <t>28,09%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>21,2; 26,07</t>
+          <t>20,02; 24,72</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>24,73; 45,39</t>
+          <t>22,17; 56,03</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>24,06; 35,62</t>
+          <t>22,12; 42,25</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>20,72%</t>
+          <t>20,32%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>20,83%</t>
+          <t>19,96%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>20,78%</t>
+          <t>20,13%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>16,48; 25,48</t>
+          <t>16,21; 25,17</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>17,4; 24,3</t>
+          <t>16,68; 23,23</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>18,38; 23,22</t>
+          <t>17,77; 22,49</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>23,87%</t>
+          <t>22,87%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>30,56%</t>
+          <t>31,42%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>27,66%</t>
+          <t>27,75%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>22,2; 25,81</t>
+          <t>21,26; 24,83</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>27,5; 41,18</t>
+          <t>25,51; 46,56</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>25,59; 33,5</t>
+          <t>24,17; 38,01</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P2B_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P2B_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>17,97; 23,24</t>
+          <t>17,92; 23,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>43,84; 50,84</t>
+          <t>44,08; 51,23</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>34,78; 42,39</t>
+          <t>34,64; 42,06</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>22,58; 29,92</t>
+          <t>22,63; 29,96</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>23,81; 28,71</t>
+          <t>23,6; 28,63</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>43,28; 49,1</t>
+          <t>43,07; 48,79</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>37,16; 43,79</t>
+          <t>37,5; 44,39</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>34,41; 39,89</t>
+          <t>34,04; 39,69</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>21,88; 25,68</t>
+          <t>21,82; 25,57</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>44,67; 48,92</t>
+          <t>44,49; 48,78</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>37,17; 42,14</t>
+          <t>37,32; 42,44</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>30,51; 34,81</t>
+          <t>30,62; 35,08</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>19,58; 24,29</t>
+          <t>19,58; 24,27</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>51,67; 56,92</t>
+          <t>51,9; 57,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>39,05; 44,03</t>
+          <t>39,19; 44,04</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>20,02; 24,72</t>
+          <t>20,22; 25,21</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>23,46; 28,13</t>
+          <t>23,18; 28,21</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>57,63; 63,03</t>
+          <t>57,55; 62,92</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>46,93; 51,89</t>
+          <t>46,99; 51,95</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>22,17; 56,03</t>
+          <t>22,19; 53,02</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>22,3; 25,74</t>
+          <t>22,33; 25,76</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>55,42; 59,17</t>
+          <t>55,54; 59,34</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>43,88; 47,55</t>
+          <t>43,68; 47,32</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>22,12; 42,25</t>
+          <t>22,08; 42,91</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>20,42; 29,23</t>
+          <t>20,07; 29,42</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>45,4; 57,05</t>
+          <t>45,1; 56,91</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>42,01; 53,56</t>
+          <t>42,53; 53,72</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>16,21; 25,17</t>
+          <t>16,43; 25,2</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>23,12; 33,13</t>
+          <t>23,8; 32,63</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>50,61; 61,69</t>
+          <t>50,7; 61,36</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>45,8; 56,2</t>
+          <t>46,24; 56,53</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>16,68; 23,23</t>
+          <t>16,95; 23,18</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>23,08; 29,18</t>
+          <t>22,82; 29,66</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>49,36; 57,56</t>
+          <t>50,17; 57,52</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>46,36; 53,63</t>
+          <t>45,83; 53,61</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>17,77; 22,49</t>
+          <t>17,34; 22,83</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>20,06; 23,58</t>
+          <t>20,24; 23,52</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>49,75; 53,69</t>
+          <t>49,96; 53,82</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>39,72; 43,79</t>
+          <t>39,6; 43,64</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>21,26; 24,83</t>
+          <t>20,95; 24,68</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>24,55; 27,77</t>
+          <t>24,72; 27,85</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>52,12; 55,83</t>
+          <t>52,48; 56,14</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>44,93; 48,93</t>
+          <t>44,95; 48,81</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>25,51; 46,56</t>
+          <t>25,63; 48,86</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>23,05; 25,45</t>
+          <t>23,03; 25,45</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>51,79; 54,39</t>
+          <t>51,62; 54,51</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>43,1; 45,87</t>
+          <t>43,26; 45,85</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>24,17; 38,01</t>
+          <t>24,28; 40,51</t>
         </is>
       </c>
     </row>
@@ -1223,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Hogares con personas que requieren dedicación o cuidados especiales</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>183</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>382</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>254</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>307</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>538</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>337</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>498</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>490</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>920</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>591</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>669</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>180726</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>413135</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>249228</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>114413</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>314722</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>583210</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>379298</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>251457</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>495448</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>996345</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>628526</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>365870</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>158750; 203785</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>383702; 446002</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>225050; 273270</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>99061; 131134</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>284297; 344884</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>544922; 617196</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>348783; 412787</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>231895; 270418</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>456301; 534548</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>950065; 1041640</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>589604; 670382</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>342680; 392514</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>252</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>784</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>586</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>323</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>320</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>851</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>767</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>527</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>572</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>1635</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>1353</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>850</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>262894</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>825031</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>619865</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>296667</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>332891</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>909461</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>795275</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>562527</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>595786</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>1734491</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>1415140</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>859194</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>233963; 290111</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>786447; 863761</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>585048; 657477</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>265586; 331064</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>299011; 363937</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>867075; 948015</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>756243; 836062</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>387367; 925413</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>554939; 640226</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>1678455; 1793305</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>1355067; 1467874</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>675499; 1312519</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>189</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>358</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>223</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>94470</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>182903</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>165470</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>84388</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>104907</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>207613</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>209174</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>89634</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>199377</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>390516</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>374645</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>174021</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>76926; 112739</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>161171; 203372</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>146664; 185228</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>68242; 104655</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>90122; 123549</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>186990; 226297</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>188761; 230788</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>76143; 104120</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>173827; 225978</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>364313; 417714</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>345121; 403678</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>149934; 197387</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>524</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>1332</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>991</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>578</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>727</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>1581</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>1303</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>1164</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>1251</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>2913</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>2294</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>1742</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>538090</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>1421068</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>1034562</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>495468</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>752521</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>1700284</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>1383748</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>903617</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>1290610</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>3121352</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>2418311</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>1399085</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>498707; 579750</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>1370490; 1476420</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>984898; 1085331</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>453761; 534708</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>710346; 800129</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>1648152; 1763189</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>1324914; 1438718</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>737180; 1405245</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>1229084; 1358587</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>3037134; 3207429</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>2351052; 2492132</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>1224059; 2042570</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>